--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,6 +79,9 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -94,10 +97,25 @@
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
@@ -106,61 +124,46 @@
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8157894736842105</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -637,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8047945205479452</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7837837837837838</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6078431372549019</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8276762402088773</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>317</v>
+        <v>102</v>
       </c>
       <c r="M8">
-        <v>317</v>
+        <v>102</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5423728813559322</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -937,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5396825396825397</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5348837209302325</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4832214765100671</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7924528301886793</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,16 +1111,16 @@
         <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2619047619047619</v>
+        <v>0.25</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,68 +1211,92 @@
         <v>315</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L15">
+        <v>45</v>
+      </c>
+      <c r="M15">
+        <v>45</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.008704061895551257</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>0.16</v>
+      </c>
+      <c r="F16">
+        <v>0.84</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3075</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7605633802816901</v>
+      </c>
+      <c r="L16">
+        <v>108</v>
+      </c>
+      <c r="M16">
+        <v>108</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>34</v>
-      </c>
-      <c r="K15">
-        <v>0.7674418604651163</v>
-      </c>
-      <c r="L15">
-        <v>33</v>
-      </c>
-      <c r="M15">
-        <v>33</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16">
-        <v>0.7659574468085106</v>
-      </c>
-      <c r="L16">
-        <v>36</v>
-      </c>
-      <c r="M16">
-        <v>36</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.75625</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M17">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1281,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.725</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1307,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1333,12 +1360,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
         <v>0.7083333333333334</v>
@@ -1364,16 +1391,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6411764705882353</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L21">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1385,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1411,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.5815899581589958</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L23">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="M23">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1437,47 +1464,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="L24">
         <v>43</v>
       </c>
-      <c r="K24">
-        <v>0.5748299319727891</v>
-      </c>
-      <c r="L24">
-        <v>169</v>
-      </c>
       <c r="M24">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.5966101694915255</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1489,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5571428571428572</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1515,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5531914893617021</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1541,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.4943820224719101</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1567,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.3835616438356164</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1593,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
